--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ0CLU672\Site\PythonWorkSpace\ExcelHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C3A57-CF53-4844-B26E-B7378E4D93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0701" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,23 +25,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+  <si>
+    <t>数据A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请番号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +183,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +477,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A10:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="18" max="18" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45807395-64D6-4B65-933F-317F07523FF3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testExcel.xlsx
+++ b/testExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ0CLU672\Site\PythonWorkSpace\ExcelHandler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C3A57-CF53-4844-B26E-B7378E4D93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB972B-280C-4CE5-AC2E-0783D9F9CC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A10:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,6 +612,9 @@
       </c>
       <c r="O12" t="s">
         <v>16</v>
+      </c>
+      <c r="R12">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
